--- a/server/resource/project_template/录入模板.xlsx
+++ b/server/resource/project_template/录入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BoLong\lg2023\server\resource\project_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A1an\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B73297-BBFF-4187-BF98-9A83DDF75A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEC23CF-9FD9-416E-ADC3-ACA4BF326656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="2760" windowWidth="24345" windowHeight="15345" xr2:uid="{FF7EBD06-6D9A-4BA9-B7D2-7949FB846CA8}"/>
+    <workbookView xWindow="10515" yWindow="3660" windowWidth="24345" windowHeight="15345" xr2:uid="{FF7EBD06-6D9A-4BA9-B7D2-7949FB846CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
       <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
